--- a/Config/基础配置/GenEnumConfig.xlsx
+++ b/Config/基础配置/GenEnumConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>##</t>
   </si>
@@ -35,7 +35,7 @@
     <t>枚举</t>
   </si>
   <si>
-    <t>Config</t>
+    <t>Cnf</t>
   </si>
   <si>
     <t>ItemType</t>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>建筑</t>
-  </si>
-  <si>
-    <t>Demo</t>
   </si>
   <si>
     <t>ConditionType</t>
@@ -756,12 +753,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1116,195 +1110,197 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="6:8">
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="6:8">
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="6:8">
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1318,7 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1339,86 +1335,77 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:8">
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="6:8">
       <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="6:8">
       <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Config/基础配置/GenEnumConfig.xlsx
+++ b/Config/基础配置/GenEnumConfig.xlsx
@@ -753,12 +753,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1108,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1303,6 +1306,9 @@
         <v>32</v>
       </c>
     </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:H1"/>
@@ -1319,7 +1325,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
